--- a/期末报告_old/data.xlsx
+++ b/期末报告_old/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
         <v>88</v>
       </c>
-      <c r="C2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2" t="n">
+        <v>86</v>
+      </c>
+      <c r="H2" t="n">
         <v>72</v>
       </c>
-      <c r="E2" t="n">
-        <v>89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66</v>
-      </c>
-      <c r="G2" t="n">
-        <v>87</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61</v>
-      </c>
       <c r="I2" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J2" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,269 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H4" t="n">
         <v>62</v>
       </c>
       <c r="I4" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>孙七</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69</v>
+      </c>
+      <c r="G6" t="n">
+        <v>72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>周八</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>吴九</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>69</v>
+      </c>
+      <c r="I8" t="n">
+        <v>72</v>
+      </c>
+      <c r="J8" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>郑十</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91</v>
+      </c>
+      <c r="C9" t="n">
+        <v>84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>82</v>
+      </c>
+      <c r="G9" t="n">
+        <v>78</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+      <c r="I9" t="n">
+        <v>91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>钱十一</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98</v>
+      </c>
+      <c r="C10" t="n">
         <v>79</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>88</v>
+      </c>
+      <c r="F10" t="n">
+        <v>96</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97</v>
+      </c>
+      <c r="H10" t="n">
+        <v>91</v>
+      </c>
+      <c r="I10" t="n">
+        <v>63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87</v>
+      </c>
+      <c r="C11" t="n">
+        <v>73</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>68</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
